--- a/script/excel/excelfunc.xlsx
+++ b/script/excel/excelfunc.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Database" sheetId="1" r:id="rId3"/>
-    <sheet name="DSUM" sheetId="4" r:id="rId4"/>
-    <sheet name="SUMIFS" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Database" sheetId="1" r:id="rId4"/>
+    <sheet name="DSUM" sheetId="4" r:id="rId5"/>
+    <sheet name="SUMIFS" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Database!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Database!$A$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="289">
   <si>
     <t>名前</t>
   </si>
@@ -1086,6 +1087,28 @@
   <si>
     <t>99</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●文字列の結合</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1122,7 +1145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,6 +1173,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1299,6 +1334,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1667,10 +1704,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>IF(B3&lt;&gt;"",B3&amp;",","")</f>
+        <v>aaa,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>IF(B4&lt;&gt;"",B4&amp;",","")</f>
+        <v>bbb,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="22"/>
+      <c r="C5" s="1" t="str">
+        <f>IF(B5&lt;&gt;"",B5&amp;",","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>IF(B6&lt;&gt;"",B6&amp;",","")</f>
+        <v>ddd,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="22"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="22"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="str">
+        <f>CONCATENATE(C3,C4,C5,C6,C7,C8,C9)</f>
+        <v>aaa,bbb,ddd,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="23" t="str">
+        <f>LEFT(D10,LEN(D10)-1)</f>
+        <v>aaa,bbb,ddd</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1754,7 +1874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
@@ -1948,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
@@ -3305,12 +3425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3403,12 +3523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -3561,12 +3681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
